--- a/writing/sarah_excel.xlsx
+++ b/writing/sarah_excel.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah.vanalsten\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah.vanalsten\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="subpopMale" sheetId="2" r:id="rId2"/>
+    <sheet name="MainRes" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="subpopMale" sheetId="2" r:id="rId3"/>
+    <sheet name="subPopWhite" sheetId="4" r:id="rId4"/>
+    <sheet name="Black" sheetId="5" r:id="rId5"/>
+    <sheet name="Hisp" sheetId="6" r:id="rId6"/>
+    <sheet name="Oth" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="198">
   <si>
     <t>Model 2 OR (95% CI)</t>
   </si>
@@ -397,6 +402,228 @@
   </si>
   <si>
     <t>*Interaction with Sex*Race signif</t>
+  </si>
+  <si>
+    <t>1.29 (0.95 - 1.76)</t>
+  </si>
+  <si>
+    <t>1.20 (1.02 - 1.41)</t>
+  </si>
+  <si>
+    <t>2.73 (2.06 - 3.62)</t>
+  </si>
+  <si>
+    <t>2.26 (1.87 - 2.72)</t>
+  </si>
+  <si>
+    <t>0.86 (0.65 - 1.14)</t>
+  </si>
+  <si>
+    <t>1.06 (0.94 - 1.22)</t>
+  </si>
+  <si>
+    <t>0.83 (0.62 - 1.11)</t>
+  </si>
+  <si>
+    <t>0.95 (0.82 - 1.09)</t>
+  </si>
+  <si>
+    <t>1.30 (0.96 - 1.76)</t>
+  </si>
+  <si>
+    <t>1.19 (1.03 - 1.40)</t>
+  </si>
+  <si>
+    <t>2.80 (2.13 - 3.69)</t>
+  </si>
+  <si>
+    <t>2.28 (1.90 - 2.72)</t>
+  </si>
+  <si>
+    <t>0.85 (0.65 - 1.11)</t>
+  </si>
+  <si>
+    <t>1.04 (0.91 - 1.18)</t>
+  </si>
+  <si>
+    <t>0.80 (0.60- 1.08)</t>
+  </si>
+  <si>
+    <t>0.91 (0.79 - 1.04)</t>
+  </si>
+  <si>
+    <t>1.28 (0.95 - 1.72)</t>
+  </si>
+  <si>
+    <t>1.17 (1.00 - 1.38)</t>
+  </si>
+  <si>
+    <t>2.72 (2.05 - 3.60)</t>
+  </si>
+  <si>
+    <t>2.24 (1.85 - 2.70)</t>
+  </si>
+  <si>
+    <t>0.85 (0.65 - 1.09)</t>
+  </si>
+  <si>
+    <t>1.02 (0.89 - 1.17)</t>
+  </si>
+  <si>
+    <t>0.82 (0.61 - 1.11)</t>
+  </si>
+  <si>
+    <t>0.94 (0.81 - 1.09)</t>
+  </si>
+  <si>
+    <t>1.15 (0.84 - 1.59)</t>
+  </si>
+  <si>
+    <t>1.05 (0.89 - 1.25)</t>
+  </si>
+  <si>
+    <t>2.73 (2.06 - 3.64)</t>
+  </si>
+  <si>
+    <t>2.25 (1.87 - 2.73)</t>
+  </si>
+  <si>
+    <t>0.76 (0.58 - 0.98)</t>
+  </si>
+  <si>
+    <t>0.84 (0.62 - 1.14)</t>
+  </si>
+  <si>
+    <t>0.93 (0.81 - 1.07)</t>
+  </si>
+  <si>
+    <t>1.08 (0.79 - 1.48)</t>
+  </si>
+  <si>
+    <t>1.03 (0.87 - 1.21)</t>
+  </si>
+  <si>
+    <t>2.24 (1.67 - 3.00)</t>
+  </si>
+  <si>
+    <t>2.09 (1.74 - 2.51)</t>
+  </si>
+  <si>
+    <t>0.75 (0.59 - 0.97)</t>
+  </si>
+  <si>
+    <t>0.91 (0.67 - 1.23)</t>
+  </si>
+  <si>
+    <t>0.96 (0.83 - 1.10)</t>
+  </si>
+  <si>
+    <t>1.05 (0.89 - 1.23)</t>
+  </si>
+  <si>
+    <t>1.18 (1.03 - 1.35)</t>
+  </si>
+  <si>
+    <t>2.14 (1.35 - 1.95)</t>
+  </si>
+  <si>
+    <t>1.62 (1.35 - 1.95)</t>
+  </si>
+  <si>
+    <t>1.11 (0.93 - 1.33)</t>
+  </si>
+  <si>
+    <t>1.26 (1.13 - 1.41)</t>
+  </si>
+  <si>
+    <t>2.37 (1.82 - 3.08)</t>
+  </si>
+  <si>
+    <t>1.72 (1.40 - 2.12)</t>
+  </si>
+  <si>
+    <t>1.01 (0.85 - 1.19)</t>
+  </si>
+  <si>
+    <t>1.12 (0.97 - 1.48)</t>
+  </si>
+  <si>
+    <t>2.30 (1.82 - 2.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43 (1.87 - 3.16) </t>
+  </si>
+  <si>
+    <t>1.75 (1.87 - 3.16)</t>
+  </si>
+  <si>
+    <t>1.10 (0.93 - 1.31)</t>
+  </si>
+  <si>
+    <t>1.24 (1.11 - 1.39)</t>
+  </si>
+  <si>
+    <t>1.13 (0.99 - 1.30)</t>
+  </si>
+  <si>
+    <t>2.21 (1.74 - 2.82)</t>
+  </si>
+  <si>
+    <t>1.68 (1.40 - 2.02)</t>
+  </si>
+  <si>
+    <t>1.10 (0.93 - 1.30)</t>
+  </si>
+  <si>
+    <t>1.23 (1.10 - 1.38)</t>
+  </si>
+  <si>
+    <t>2.39 (1.83 - 3.12)</t>
+  </si>
+  <si>
+    <t>1.74 (1.42 - 2.14)</t>
+  </si>
+  <si>
+    <t>0.81 (0.65 - 1.00)</t>
+  </si>
+  <si>
+    <t>0.91 (0.78 - 1.08)</t>
+  </si>
+  <si>
+    <t>2.24 (1.71 - 2.96)</t>
+  </si>
+  <si>
+    <t>0.99 (0.86 - 1.14)</t>
+  </si>
+  <si>
+    <t>2.38 (1.79 - 3.17)</t>
+  </si>
+  <si>
+    <t>1.70 (1.39 - 2.08)</t>
+  </si>
+  <si>
+    <t>0.81 (0.65 - 1.01)</t>
+  </si>
+  <si>
+    <t>0.92 (0.78 - 1.07)</t>
+  </si>
+  <si>
+    <t>2.00 (1.51 - 2.66)</t>
+  </si>
+  <si>
+    <t>1.62 (1.35 - 1.94)</t>
+  </si>
+  <si>
+    <t>2.03 (1.52 - 2.72)</t>
+  </si>
+  <si>
+    <t>1.61 (1.31 - 1.97)</t>
+  </si>
+  <si>
+    <t>0.79 (0.63 - 0.99)</t>
+  </si>
+  <si>
+    <t>0.97 (0.84 - 1.12)</t>
   </si>
 </sst>
 </file>
@@ -753,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,19 +1032,19 @@
         <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -831,19 +1058,19 @@
         <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="7" t="s">
@@ -859,19 +1086,19 @@
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -885,19 +1112,19 @@
         <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -919,19 +1146,19 @@
         <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="7" t="s">
@@ -947,19 +1174,19 @@
         <v>57</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -981,19 +1208,19 @@
         <v>76</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="7" t="s">
@@ -1008,20 +1235,20 @@
       <c r="B13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
+      <c r="C13" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1083,19 +1310,19 @@
         <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>48</v>
+        <v>125</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1109,19 +1336,19 @@
         <v>26</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
@@ -1137,19 +1364,19 @@
         <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1163,19 +1390,19 @@
         <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1198,19 +1425,19 @@
         <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="7" t="s">
@@ -1226,19 +1453,19 @@
         <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1260,19 +1487,19 @@
         <v>78</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>90</v>
+        <v>174</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="7" t="s">
@@ -1288,19 +1515,19 @@
         <v>79</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1358,6 +1585,614 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="6" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1369,4 +2204,58 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/writing/sarah_excel.xlsx
+++ b/writing/sarah_excel.xlsx
@@ -13,12 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="MainRes" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="subpopMale" sheetId="2" r:id="rId3"/>
-    <sheet name="subPopWhite" sheetId="4" r:id="rId4"/>
-    <sheet name="Black" sheetId="5" r:id="rId5"/>
-    <sheet name="Hisp" sheetId="6" r:id="rId6"/>
-    <sheet name="Oth" sheetId="7" r:id="rId7"/>
+    <sheet name="SexStratified" sheetId="2" r:id="rId2"/>
+    <sheet name="RaceStratified" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="275">
   <si>
     <t>Model 2 OR (95% CI)</t>
   </si>
@@ -624,6 +621,237 @@
   </si>
   <si>
     <t>0.97 (0.84 - 1.12)</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>FS Without Hunger</t>
+  </si>
+  <si>
+    <t>FS With Hunger</t>
+  </si>
+  <si>
+    <t>OR (95 % CI)</t>
+  </si>
+  <si>
+    <t>OR (95%CI)</t>
+  </si>
+  <si>
+    <t>Tried to Not Gain</t>
+  </si>
+  <si>
+    <t>1.04 (0.61 - 1.80)</t>
+  </si>
+  <si>
+    <t>0.96 (0.72 - 1.26)</t>
+  </si>
+  <si>
+    <t>3.81 (2.62 - 3.96)</t>
+  </si>
+  <si>
+    <t>3.06 (2.38 - 3.96)</t>
+  </si>
+  <si>
+    <t>0.75 (0.51 - 1.11)</t>
+  </si>
+  <si>
+    <t>0.83 (0.68 - 1.02)</t>
+  </si>
+  <si>
+    <t>0.72 (0.41 - 1.28)</t>
+  </si>
+  <si>
+    <t>0.84 (0.65 - 1.08)</t>
+  </si>
+  <si>
+    <t>for age, education, sex, BMI category</t>
+  </si>
+  <si>
+    <t>Non-White</t>
+  </si>
+  <si>
+    <t>0.93 (0.71 - 1.22)</t>
+  </si>
+  <si>
+    <t>2.84 (1.86 - 4.33)</t>
+  </si>
+  <si>
+    <t>0.75 (0.52 - 1.09)</t>
+  </si>
+  <si>
+    <t>0.84 (0.68 - 1.02)</t>
+  </si>
+  <si>
+    <t>0.79 (0.46 - 1.37)</t>
+  </si>
+  <si>
+    <t>0.87 (0.69 - 1.11)</t>
+  </si>
+  <si>
+    <t>1.36 (0.99 - 1.87)</t>
+  </si>
+  <si>
+    <t>1.22 (1.04 - 1.44)</t>
+  </si>
+  <si>
+    <t>1.84 (1.29 - 2.63)</t>
+  </si>
+  <si>
+    <t>1.56 (1.25 - 1.95)</t>
+  </si>
+  <si>
+    <t>0.76 (0.57 - 1.02)</t>
+  </si>
+  <si>
+    <t>1.04 (0.64 - 1.70)</t>
+  </si>
+  <si>
+    <t>1.09 (0.88 - 1.35)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Like To Weigh Less</t>
+  </si>
+  <si>
+    <t>Like To Weigh More</t>
+  </si>
+  <si>
+    <t>0.68 (0.50 - 0.93)</t>
+  </si>
+  <si>
+    <t>0.82 (0.66 - 1.02)</t>
+  </si>
+  <si>
+    <t>2.68 (1.58 - 4.55)</t>
+  </si>
+  <si>
+    <t>1.81 (1.28 - 2.57)</t>
+  </si>
+  <si>
+    <t>0.96 (0.73 - 1.26)</t>
+  </si>
+  <si>
+    <t>1.04 (0.83 - 1.29)</t>
+  </si>
+  <si>
+    <t>2.04 (1.44 - 2.89)</t>
+  </si>
+  <si>
+    <t>1.66 (1.35 - 2.04)</t>
+  </si>
+  <si>
+    <t>for age, education, Race, BMI category</t>
+  </si>
+  <si>
+    <t>for age, education, Race, BMI category, depression</t>
+  </si>
+  <si>
+    <t>0.70 (0.51 - 0.97)</t>
+  </si>
+  <si>
+    <t>0.82 (0.67 - 1.02)</t>
+  </si>
+  <si>
+    <t>2.31 (1.25 - 3.95)</t>
+  </si>
+  <si>
+    <t>1.74 (1.21 - 2.50)</t>
+  </si>
+  <si>
+    <t>0.94 (0.72 - 1.24)</t>
+  </si>
+  <si>
+    <t>1.03 (0.83 - 1.28)</t>
+  </si>
+  <si>
+    <t>1.89 (1.32 - 2.70)</t>
+  </si>
+  <si>
+    <t>1.62 (1.33 - 1.98)</t>
+  </si>
+  <si>
+    <t>for age, education, sex, BMI category, depression</t>
+  </si>
+  <si>
+    <t>1.28 (0.93 - 1.76)</t>
+  </si>
+  <si>
+    <t>1.68 (1.17 - 2.42)</t>
+  </si>
+  <si>
+    <t>1.52 (1.21 - 1.90)</t>
+  </si>
+  <si>
+    <t>0.75 (0.56 - 0.98)</t>
+  </si>
+  <si>
+    <t>0.99 (0.85 - 1.15)</t>
+  </si>
+  <si>
+    <t>1.08 (0.66 - 1.77)</t>
+  </si>
+  <si>
+    <t>1.10 (0.88 - 1.36)</t>
+  </si>
+  <si>
+    <t>0.98 (0.57 - 1.67)</t>
+  </si>
+  <si>
+    <t>2.72 (2.11 - 3.50)</t>
+  </si>
+  <si>
+    <t>0.83 (0.62 - 1.10)</t>
+  </si>
+  <si>
+    <t>1.05 (0.85 - 1.32)</t>
+  </si>
+  <si>
+    <t>2.12 (1.41 - 3.18)</t>
+  </si>
+  <si>
+    <t>1.81 (1.43 - 2.31)</t>
+  </si>
+  <si>
+    <t>0.92 (0.67 - 1.25)</t>
+  </si>
+  <si>
+    <t>0.94 (0.77 - 1.15)</t>
+  </si>
+  <si>
+    <t>2.61 (1.62 - 4.22)</t>
+  </si>
+  <si>
+    <t>1.41 (0.98 - 2.03)</t>
+  </si>
+  <si>
+    <t>0.80 (0.60 - 1.05)</t>
+  </si>
+  <si>
+    <t>1.05 (0.84 - 1.30)</t>
+  </si>
+  <si>
+    <t>1.78 (1.16 - 2.73)</t>
+  </si>
+  <si>
+    <t>1.71 (1.34 - 2.19)</t>
+  </si>
+  <si>
+    <t>0.84 (0.60 - 1.16)</t>
+  </si>
+  <si>
+    <t>0.92 (0.75 - 1.12)</t>
+  </si>
+  <si>
+    <t>2.30 (1.40 - 3.76)</t>
+  </si>
+  <si>
+    <t>1.35 (0.94 - 1.95)</t>
   </si>
 </sst>
 </file>
@@ -980,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,604 +1814,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="6" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="3" width="19.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="7" width="19.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="5" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>229</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>49</v>
+        <v>234</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>229</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>96</v>
+        <v>263</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>104</v>
+      <c r="B21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2194,68 +2104,848 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="3" width="19.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="7" width="19.5703125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>